--- a/data_group/significance_results_prec_Wilcox_test.xlsx
+++ b/data_group/significance_results_prec_Wilcox_test.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CBA_PF_vs_SF_beginning</t>
+          <t>CBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EBA_PF_vs_SF_beginning</t>
+          <t>EBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SBA_PF_vs_SF_beginning</t>
+          <t>SBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/data_group/significance_results_prec_Wilcox_test.xlsx
+++ b/data_group/significance_results_prec_Wilcox_test.xlsx
@@ -416,31 +416,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.09209736115718609</v>
+        <v>0.03358677936817663</v>
       </c>
       <c r="C2">
-        <v>0.1136659731130788</v>
+        <v>0.04900887783470882</v>
       </c>
       <c r="D2">
-        <v>0.7271723281019488</v>
+        <v>0.4338647443571642</v>
       </c>
       <c r="E2">
-        <v>9.0424687331584E-07</v>
+        <v>3.399857367444777E-09</v>
       </c>
       <c r="F2">
-        <v>5.732088923380768E-06</v>
+        <v>5.933958705802524E-09</v>
       </c>
       <c r="G2">
-        <v>0.0009351784345881225</v>
+        <v>1.821928435471758E-05</v>
       </c>
       <c r="H2">
-        <v>0.8421885624165287</v>
+        <v>0.01951266891344059</v>
       </c>
       <c r="I2">
-        <v>0.5498622643317999</v>
+        <v>0.007289050357288072</v>
       </c>
       <c r="J2">
-        <v>0.8550503220013248</v>
+        <v>0.04048859217105265</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.01461387898167541</v>
+        <v>0.006190157465817826</v>
       </c>
       <c r="C3">
-        <v>0.02404934662120388</v>
+        <v>0.01572689385883497</v>
       </c>
       <c r="D3">
-        <v>0.2631871988794287</v>
+        <v>0.197638611261904</v>
       </c>
       <c r="E3">
-        <v>1.824902238582102E-06</v>
+        <v>2.54153272058167E-09</v>
       </c>
       <c r="F3">
-        <v>7.809580128062902E-06</v>
+        <v>1.674290415049854E-08</v>
       </c>
       <c r="G3">
-        <v>0.02849061410298818</v>
+        <v>0.00012208317093825</v>
       </c>
       <c r="H3">
-        <v>0.2940628002603309</v>
+        <v>0.01817255848263554</v>
       </c>
       <c r="I3">
-        <v>0.1136659731130788</v>
+        <v>0.006719943911202727</v>
       </c>
       <c r="J3">
-        <v>0.1860635802505854</v>
+        <v>0.01073733790341331</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.005697393025955338</v>
+        <v>0.002597948998804433</v>
       </c>
       <c r="C4">
-        <v>0.01817255848263554</v>
+        <v>0.007289050357288072</v>
       </c>
       <c r="D4">
-        <v>0.1104798385695888</v>
+        <v>0.089215025918126</v>
       </c>
       <c r="E4">
-        <v>2.557257525367491E-06</v>
+        <v>3.399857367444777E-09</v>
       </c>
       <c r="F4">
-        <v>7.809580128062902E-06</v>
+        <v>4.339927218771038E-08</v>
       </c>
       <c r="G4">
-        <v>0.08288702638503072</v>
+        <v>0.0009351784345881225</v>
       </c>
       <c r="H4">
-        <v>0.06980961670666386</v>
+        <v>0.0169118977766385</v>
       </c>
       <c r="I4">
-        <v>0.03819967479229508</v>
+        <v>0.006719943911202727</v>
       </c>
       <c r="J4">
-        <v>0.07129348815328407</v>
+        <v>0.008677369095338479</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.005239450857888689</v>
+        <v>0.002370306294779936</v>
       </c>
       <c r="C5">
-        <v>0.01167182887298439</v>
+        <v>0.004814236694067825</v>
       </c>
       <c r="D5">
-        <v>0.08288702638503072</v>
+        <v>0.06600153347511169</v>
       </c>
       <c r="E5">
-        <v>2.162658560659403E-06</v>
+        <v>4.339927218771038E-08</v>
       </c>
       <c r="F5">
-        <v>1.056296669308417E-05</v>
+        <v>3.551866290835123E-07</v>
       </c>
       <c r="G5">
-        <v>0.1354317338484458</v>
+        <v>0.01073733790341331</v>
       </c>
       <c r="H5">
-        <v>0.03358677936817663</v>
+        <v>0.01081242974857537</v>
       </c>
       <c r="I5">
-        <v>0.01461387898167541</v>
+        <v>0.004419750192182623</v>
       </c>
       <c r="J5">
-        <v>0.0371563131665149</v>
+        <v>0.008677369095338479</v>
       </c>
     </row>
     <row r="6">
@@ -552,31 +552,31 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.001790232302690472</v>
+        <v>0.001477718832868953</v>
       </c>
       <c r="C6">
-        <v>0.01167182887298439</v>
+        <v>0.01000844067465753</v>
       </c>
       <c r="D6">
-        <v>0.08288702638503072</v>
+        <v>0.07129348815328407</v>
       </c>
       <c r="E6">
-        <v>1.225235396112192E-05</v>
+        <v>3.553144488577637E-06</v>
       </c>
       <c r="F6">
-        <v>2.509243736387836E-05</v>
+        <v>6.696830963690454E-06</v>
       </c>
       <c r="G6">
-        <v>0.1183711292533826</v>
+        <v>0.07691767795591596</v>
       </c>
       <c r="H6">
-        <v>0.03583144753073163</v>
+        <v>0.02244698041913517</v>
       </c>
       <c r="I6">
-        <v>0.007899885422807675</v>
+        <v>0.006190157465817826</v>
       </c>
       <c r="J6">
-        <v>0.01780828405876413</v>
+        <v>0.01320476039365172</v>
       </c>
     </row>
     <row r="7">
